--- a/Alumnos/nueva_base_de_datos.xlsx
+++ b/Alumnos/nueva_base_de_datos.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="325">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="314">
   <si>
     <t>NOMBRE</t>
   </si>
@@ -94,7 +94,7 @@
     <t>09-011-2016</t>
   </si>
   <si>
-    <t>Ingenieria de software</t>
+    <t>Ingeniería de Software</t>
   </si>
   <si>
     <t>Andrea Hidalgo Ponce</t>
@@ -172,9 +172,6 @@
     <t>14-011-0923</t>
   </si>
   <si>
-    <t>Ingeniería de Software</t>
-  </si>
-  <si>
     <t>Brenda Santana Jimenez</t>
   </si>
   <si>
@@ -190,9 +187,6 @@
     <t>12-011-3407</t>
   </si>
   <si>
-    <t>Ingenieria en Software</t>
-  </si>
-  <si>
     <t>Carlos Quiroz Sanchez</t>
   </si>
   <si>
@@ -331,9 +325,6 @@
     <t>14-011-1668</t>
   </si>
   <si>
-    <t>Ingenieria de Software</t>
-  </si>
-  <si>
     <t>Erick Mendoza Gacía</t>
   </si>
   <si>
@@ -406,9 +397,6 @@
     <t>11-011-3461</t>
   </si>
   <si>
-    <t>Ingeníeria del Software</t>
-  </si>
-  <si>
     <t>Hugo De La Paz Torres</t>
   </si>
   <si>
@@ -421,9 +409,6 @@
     <t>11-011-0022</t>
   </si>
   <si>
-    <t xml:space="preserve">Ingenieria en software </t>
-  </si>
-  <si>
     <t>Humberto Juárez Cabrera</t>
   </si>
   <si>
@@ -520,9 +505,6 @@
     <t>12-011-0944</t>
   </si>
   <si>
-    <t>Ingeniería en Software</t>
-  </si>
-  <si>
     <t>Juan Avila Camacho</t>
   </si>
   <si>
@@ -604,18 +586,12 @@
     <t>11-011-2073</t>
   </si>
   <si>
-    <t>ingenieria en software</t>
-  </si>
-  <si>
     <t>Lucía Pablo Peréz</t>
   </si>
   <si>
     <t>12-011-0721</t>
   </si>
   <si>
-    <t>Ingeniería en software</t>
-  </si>
-  <si>
     <t>Luis Enrique González Tercero</t>
   </si>
   <si>
@@ -745,9 +721,6 @@
     <t>12-011-0704</t>
   </si>
   <si>
-    <t>Ingeniería del Software</t>
-  </si>
-  <si>
     <t>Oscar Ramírez Cañada</t>
   </si>
   <si>
@@ -856,9 +829,6 @@
     <t>12-011-1313</t>
   </si>
   <si>
-    <t>Licenciatura en Ing. de Software</t>
-  </si>
-  <si>
     <t>Victor Ortega Pèrez</t>
   </si>
   <si>
@@ -950,9 +920,6 @@
   </si>
   <si>
     <t>13-003-0520</t>
-  </si>
-  <si>
-    <t>INGENIERÍA EN SOFTWARE</t>
   </si>
   <si>
     <t>BLANCAS LARA AMERICA PAMELA</t>
@@ -1633,7 +1600,7 @@
         <v>51</v>
       </c>
       <c r="D15" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E15" t="n">
         <v>200</v>
@@ -1647,13 +1614,13 @@
         <v>14</v>
       </c>
       <c r="B16" t="s">
+        <v>52</v>
+      </c>
+      <c r="C16" t="s">
         <v>53</v>
       </c>
-      <c r="C16" t="s">
+      <c r="D16" t="s">
         <v>54</v>
-      </c>
-      <c r="D16" t="s">
-        <v>55</v>
       </c>
       <c r="E16" t="n">
         <v>150</v>
@@ -1667,13 +1634,13 @@
         <v>15</v>
       </c>
       <c r="B17" t="s">
+        <v>55</v>
+      </c>
+      <c r="C17" t="s">
         <v>56</v>
       </c>
-      <c r="C17" t="s">
-        <v>57</v>
-      </c>
       <c r="D17" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E17" t="n">
         <v>212</v>
@@ -1687,10 +1654,10 @@
         <v>16</v>
       </c>
       <c r="B18" t="s">
-        <v>59</v>
+        <v>57</v>
       </c>
       <c r="C18" t="s">
-        <v>60</v>
+        <v>58</v>
       </c>
       <c r="D18" t="s">
         <v>29</v>
@@ -1699,7 +1666,7 @@
         <v>400</v>
       </c>
       <c r="F18" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="19" spans="1:6">
@@ -1707,19 +1674,19 @@
         <v>17</v>
       </c>
       <c r="B19" t="s">
+        <v>60</v>
+      </c>
+      <c r="C19" t="s">
+        <v>61</v>
+      </c>
+      <c r="D19" t="s">
         <v>62</v>
-      </c>
-      <c r="C19" t="s">
-        <v>63</v>
-      </c>
-      <c r="D19" t="s">
-        <v>64</v>
       </c>
       <c r="E19" t="n">
         <v>11</v>
       </c>
       <c r="F19" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
     </row>
     <row r="20" spans="1:6">
@@ -1727,10 +1694,10 @@
         <v>18</v>
       </c>
       <c r="B20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C20" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="D20" t="s">
         <v>33</v>
@@ -1747,13 +1714,13 @@
         <v>19</v>
       </c>
       <c r="B21" t="s">
+        <v>66</v>
+      </c>
+      <c r="C21" t="s">
+        <v>67</v>
+      </c>
+      <c r="D21" t="s">
         <v>68</v>
-      </c>
-      <c r="C21" t="s">
-        <v>69</v>
-      </c>
-      <c r="D21" t="s">
-        <v>70</v>
       </c>
       <c r="E21" t="n">
         <v>417</v>
@@ -1767,10 +1734,10 @@
         <v>20</v>
       </c>
       <c r="B22" t="s">
-        <v>71</v>
+        <v>69</v>
       </c>
       <c r="C22" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
       <c r="D22" t="s">
         <v>48</v>
@@ -1787,13 +1754,13 @@
         <v>21</v>
       </c>
       <c r="B23" t="s">
+        <v>71</v>
+      </c>
+      <c r="C23" t="s">
+        <v>72</v>
+      </c>
+      <c r="D23" t="s">
         <v>73</v>
-      </c>
-      <c r="C23" t="s">
-        <v>74</v>
-      </c>
-      <c r="D23" t="s">
-        <v>75</v>
       </c>
       <c r="E23" t="n">
         <v>120</v>
@@ -1807,19 +1774,19 @@
         <v>22</v>
       </c>
       <c r="B24" t="s">
+        <v>74</v>
+      </c>
+      <c r="C24" t="s">
+        <v>75</v>
+      </c>
+      <c r="D24" t="s">
         <v>76</v>
-      </c>
-      <c r="C24" t="s">
-        <v>77</v>
-      </c>
-      <c r="D24" t="s">
-        <v>78</v>
       </c>
       <c r="E24" t="n">
         <v>400</v>
       </c>
       <c r="F24" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="25" spans="1:6">
@@ -1827,10 +1794,10 @@
         <v>23</v>
       </c>
       <c r="B25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
       <c r="C25" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="D25" t="s">
         <v>7</v>
@@ -1847,13 +1814,13 @@
         <v>24</v>
       </c>
       <c r="B26" t="s">
+        <v>79</v>
+      </c>
+      <c r="C26" t="s">
+        <v>80</v>
+      </c>
+      <c r="D26" t="s">
         <v>81</v>
-      </c>
-      <c r="C26" t="s">
-        <v>82</v>
-      </c>
-      <c r="D26" t="s">
-        <v>83</v>
       </c>
       <c r="E26" t="n">
         <v>56</v>
@@ -1867,10 +1834,10 @@
         <v>25</v>
       </c>
       <c r="B27" t="s">
-        <v>84</v>
+        <v>82</v>
       </c>
       <c r="C27" t="s">
-        <v>85</v>
+        <v>83</v>
       </c>
       <c r="D27" t="s">
         <v>15</v>
@@ -1887,19 +1854,19 @@
         <v>26</v>
       </c>
       <c r="B28" t="s">
-        <v>86</v>
+        <v>84</v>
       </c>
       <c r="C28" t="s">
-        <v>87</v>
+        <v>85</v>
       </c>
       <c r="D28" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E28" t="n">
         <v>89</v>
       </c>
       <c r="F28" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6">
@@ -1907,10 +1874,10 @@
         <v>27</v>
       </c>
       <c r="B29" t="s">
-        <v>89</v>
+        <v>87</v>
       </c>
       <c r="C29" t="s">
-        <v>90</v>
+        <v>88</v>
       </c>
       <c r="D29" t="s">
         <v>37</v>
@@ -1927,10 +1894,10 @@
         <v>28</v>
       </c>
       <c r="B30" t="s">
-        <v>91</v>
+        <v>89</v>
       </c>
       <c r="C30" t="s">
-        <v>92</v>
+        <v>90</v>
       </c>
       <c r="D30" t="s">
         <v>26</v>
@@ -1947,10 +1914,10 @@
         <v>29</v>
       </c>
       <c r="B31" t="s">
-        <v>93</v>
+        <v>91</v>
       </c>
       <c r="C31" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
       <c r="D31" t="s">
         <v>15</v>
@@ -1967,13 +1934,13 @@
         <v>30</v>
       </c>
       <c r="B32" t="s">
+        <v>93</v>
+      </c>
+      <c r="C32" t="s">
+        <v>94</v>
+      </c>
+      <c r="D32" t="s">
         <v>95</v>
-      </c>
-      <c r="C32" t="s">
-        <v>96</v>
-      </c>
-      <c r="D32" t="s">
-        <v>97</v>
       </c>
       <c r="E32" t="n">
         <v>80</v>
@@ -1987,13 +1954,13 @@
         <v>31</v>
       </c>
       <c r="B33" t="s">
-        <v>98</v>
+        <v>96</v>
       </c>
       <c r="C33" t="s">
-        <v>99</v>
+        <v>97</v>
       </c>
       <c r="D33" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E33" t="n">
         <v>39</v>
@@ -2007,13 +1974,13 @@
         <v>32</v>
       </c>
       <c r="B34" t="s">
+        <v>98</v>
+      </c>
+      <c r="C34" t="s">
+        <v>99</v>
+      </c>
+      <c r="D34" t="s">
         <v>100</v>
-      </c>
-      <c r="C34" t="s">
-        <v>101</v>
-      </c>
-      <c r="D34" t="s">
-        <v>102</v>
       </c>
       <c r="E34" t="n">
         <v>209</v>
@@ -2027,13 +1994,13 @@
         <v>33</v>
       </c>
       <c r="B35" t="s">
-        <v>103</v>
+        <v>101</v>
       </c>
       <c r="C35" t="s">
-        <v>104</v>
+        <v>102</v>
       </c>
       <c r="D35" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E35" t="n">
         <v>80</v>
@@ -2047,13 +2014,13 @@
         <v>34</v>
       </c>
       <c r="B36" t="s">
-        <v>106</v>
+        <v>103</v>
       </c>
       <c r="C36" t="s">
-        <v>107</v>
+        <v>104</v>
       </c>
       <c r="D36" t="s">
-        <v>108</v>
+        <v>105</v>
       </c>
       <c r="E36" t="n">
         <v>222</v>
@@ -2067,13 +2034,13 @@
         <v>35</v>
       </c>
       <c r="B37" t="s">
-        <v>109</v>
+        <v>106</v>
       </c>
       <c r="C37" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
       <c r="D37" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E37" t="n">
         <v>260</v>
@@ -2087,19 +2054,19 @@
         <v>36</v>
       </c>
       <c r="B38" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="C38" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="D38" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
       <c r="E38" t="n">
         <v>259</v>
       </c>
       <c r="F38" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="39" spans="1:6">
@@ -2107,19 +2074,19 @@
         <v>37</v>
       </c>
       <c r="B39" t="s">
-        <v>115</v>
+        <v>112</v>
       </c>
       <c r="C39" t="s">
-        <v>116</v>
+        <v>113</v>
       </c>
       <c r="D39" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E39" t="n">
         <v>44</v>
       </c>
       <c r="F39" t="s">
-        <v>118</v>
+        <v>115</v>
       </c>
     </row>
     <row r="40" spans="1:6">
@@ -2127,13 +2094,13 @@
         <v>38</v>
       </c>
       <c r="B40" t="s">
-        <v>119</v>
+        <v>116</v>
       </c>
       <c r="C40" t="s">
-        <v>120</v>
+        <v>117</v>
       </c>
       <c r="D40" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E40" t="n">
         <v>300</v>
@@ -2147,10 +2114,10 @@
         <v>39</v>
       </c>
       <c r="B41" t="s">
-        <v>121</v>
+        <v>118</v>
       </c>
       <c r="C41" t="s">
-        <v>122</v>
+        <v>119</v>
       </c>
       <c r="D41" t="s">
         <v>11</v>
@@ -2167,13 +2134,13 @@
         <v>40</v>
       </c>
       <c r="B42" t="s">
-        <v>123</v>
+        <v>120</v>
       </c>
       <c r="C42" t="s">
-        <v>124</v>
+        <v>121</v>
       </c>
       <c r="D42" t="s">
-        <v>125</v>
+        <v>122</v>
       </c>
       <c r="E42" t="n">
         <v>95</v>
@@ -2187,10 +2154,10 @@
         <v>41</v>
       </c>
       <c r="B43" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
       <c r="C43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="D43" t="s">
         <v>7</v>
@@ -2207,13 +2174,13 @@
         <v>42</v>
       </c>
       <c r="B44" t="s">
-        <v>128</v>
+        <v>125</v>
       </c>
       <c r="C44" t="s">
-        <v>129</v>
+        <v>126</v>
       </c>
       <c r="D44" t="s">
-        <v>130</v>
+        <v>26</v>
       </c>
       <c r="E44" t="n">
         <v>68</v>
@@ -2225,10 +2192,10 @@
         <v>43</v>
       </c>
       <c r="B45" t="s">
-        <v>131</v>
+        <v>127</v>
       </c>
       <c r="C45" t="s">
-        <v>132</v>
+        <v>128</v>
       </c>
       <c r="D45" t="s">
         <v>33</v>
@@ -2245,13 +2212,13 @@
         <v>44</v>
       </c>
       <c r="B46" t="s">
-        <v>133</v>
+        <v>129</v>
       </c>
       <c r="C46" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
       <c r="D46" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E46" t="n">
         <v>250</v>
@@ -2265,13 +2232,13 @@
         <v>45</v>
       </c>
       <c r="B47" t="s">
-        <v>136</v>
+        <v>131</v>
       </c>
       <c r="C47" t="s">
-        <v>137</v>
+        <v>132</v>
       </c>
       <c r="D47" t="s">
-        <v>138</v>
+        <v>133</v>
       </c>
       <c r="E47" t="n">
         <v>326</v>
@@ -2285,19 +2252,19 @@
         <v>46</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>134</v>
       </c>
       <c r="C48" t="s">
-        <v>140</v>
+        <v>135</v>
       </c>
       <c r="D48" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E48" t="n">
         <v>120</v>
       </c>
       <c r="F48" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="49" spans="1:6">
@@ -2305,10 +2272,10 @@
         <v>47</v>
       </c>
       <c r="B49" t="s">
-        <v>142</v>
+        <v>137</v>
       </c>
       <c r="C49" t="s">
-        <v>143</v>
+        <v>138</v>
       </c>
       <c r="D49" t="s">
         <v>23</v>
@@ -2325,13 +2292,13 @@
         <v>48</v>
       </c>
       <c r="B50" t="s">
-        <v>144</v>
+        <v>139</v>
       </c>
       <c r="C50" t="s">
-        <v>145</v>
+        <v>140</v>
       </c>
       <c r="D50" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="E50" t="n">
         <v>12</v>
@@ -2345,10 +2312,10 @@
         <v>49</v>
       </c>
       <c r="B51" t="s">
-        <v>146</v>
+        <v>141</v>
       </c>
       <c r="C51" t="s">
-        <v>147</v>
+        <v>142</v>
       </c>
       <c r="D51" t="s">
         <v>48</v>
@@ -2365,10 +2332,10 @@
         <v>50</v>
       </c>
       <c r="B52" t="s">
-        <v>148</v>
+        <v>143</v>
       </c>
       <c r="C52" t="s">
-        <v>149</v>
+        <v>144</v>
       </c>
       <c r="D52" t="s">
         <v>7</v>
@@ -2385,13 +2352,13 @@
         <v>51</v>
       </c>
       <c r="B53" t="s">
-        <v>150</v>
+        <v>145</v>
       </c>
       <c r="C53" t="s">
-        <v>151</v>
+        <v>146</v>
       </c>
       <c r="D53" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
       <c r="E53" t="n">
         <v>306</v>
@@ -2405,13 +2372,13 @@
         <v>52</v>
       </c>
       <c r="B54" t="s">
-        <v>152</v>
+        <v>147</v>
       </c>
       <c r="C54" t="s">
-        <v>153</v>
+        <v>148</v>
       </c>
       <c r="D54" t="s">
-        <v>154</v>
+        <v>149</v>
       </c>
       <c r="E54" t="n">
         <v>210</v>
@@ -2425,13 +2392,13 @@
         <v>53</v>
       </c>
       <c r="B55" t="s">
-        <v>155</v>
+        <v>150</v>
       </c>
       <c r="C55" t="s">
-        <v>156</v>
+        <v>151</v>
       </c>
       <c r="D55" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E55" t="n">
         <v>320</v>
@@ -2445,13 +2412,13 @@
         <v>54</v>
       </c>
       <c r="B56" t="s">
-        <v>158</v>
+        <v>153</v>
       </c>
       <c r="C56" t="s">
-        <v>159</v>
+        <v>154</v>
       </c>
       <c r="D56" t="s">
-        <v>135</v>
+        <v>26</v>
       </c>
       <c r="E56" t="n">
         <v>220</v>
@@ -2465,13 +2432,13 @@
         <v>55</v>
       </c>
       <c r="B57" t="s">
-        <v>160</v>
+        <v>155</v>
       </c>
       <c r="C57" t="s">
-        <v>161</v>
+        <v>156</v>
       </c>
       <c r="D57" t="s">
-        <v>117</v>
+        <v>114</v>
       </c>
       <c r="E57" t="n">
         <v>0</v>
@@ -2485,10 +2452,10 @@
         <v>56</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>157</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>158</v>
       </c>
       <c r="D58" t="s">
         <v>48</v>
@@ -2505,10 +2472,10 @@
         <v>57</v>
       </c>
       <c r="B59" t="s">
-        <v>164</v>
+        <v>159</v>
       </c>
       <c r="C59" t="s">
-        <v>165</v>
+        <v>160</v>
       </c>
       <c r="D59" t="s">
         <v>15</v>
@@ -2525,13 +2492,13 @@
         <v>58</v>
       </c>
       <c r="B60" t="s">
-        <v>166</v>
+        <v>161</v>
       </c>
       <c r="C60" t="s">
-        <v>167</v>
+        <v>162</v>
       </c>
       <c r="D60" t="s">
-        <v>168</v>
+        <v>26</v>
       </c>
       <c r="E60" t="n">
         <v>289</v>
@@ -2545,13 +2512,13 @@
         <v>59</v>
       </c>
       <c r="B61" t="s">
-        <v>169</v>
+        <v>163</v>
       </c>
       <c r="C61" t="s">
-        <v>170</v>
+        <v>164</v>
       </c>
       <c r="D61" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
       <c r="E61" t="n">
         <v>108</v>
@@ -2565,13 +2532,13 @@
         <v>60</v>
       </c>
       <c r="B62" t="s">
-        <v>171</v>
+        <v>165</v>
       </c>
       <c r="C62" t="s">
-        <v>172</v>
+        <v>166</v>
       </c>
       <c r="D62" t="s">
-        <v>173</v>
+        <v>167</v>
       </c>
       <c r="E62" t="n">
         <v>300</v>
@@ -2585,13 +2552,13 @@
         <v>61</v>
       </c>
       <c r="B63" t="s">
-        <v>174</v>
+        <v>168</v>
       </c>
       <c r="C63" t="s">
-        <v>175</v>
+        <v>169</v>
       </c>
       <c r="D63" t="s">
-        <v>176</v>
+        <v>170</v>
       </c>
       <c r="E63" t="n">
         <v>420</v>
@@ -2605,10 +2572,10 @@
         <v>62</v>
       </c>
       <c r="B64" t="s">
-        <v>177</v>
+        <v>171</v>
       </c>
       <c r="C64" t="s">
-        <v>178</v>
+        <v>172</v>
       </c>
       <c r="D64" t="s">
         <v>23</v>
@@ -2625,10 +2592,10 @@
         <v>63</v>
       </c>
       <c r="B65" t="s">
-        <v>179</v>
+        <v>173</v>
       </c>
       <c r="C65" t="s">
-        <v>180</v>
+        <v>174</v>
       </c>
       <c r="D65" t="s">
         <v>33</v>
@@ -2645,10 +2612,10 @@
         <v>64</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>175</v>
       </c>
       <c r="C66" t="s">
-        <v>182</v>
+        <v>176</v>
       </c>
       <c r="D66" t="s">
         <v>48</v>
@@ -2665,13 +2632,13 @@
         <v>65</v>
       </c>
       <c r="B67" t="s">
-        <v>183</v>
+        <v>177</v>
       </c>
       <c r="C67" t="s">
-        <v>184</v>
+        <v>178</v>
       </c>
       <c r="D67" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E67" t="n">
         <v>255</v>
@@ -2685,13 +2652,13 @@
         <v>66</v>
       </c>
       <c r="B68" t="s">
-        <v>186</v>
+        <v>180</v>
       </c>
       <c r="C68" t="s">
-        <v>187</v>
+        <v>181</v>
       </c>
       <c r="D68" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E68" t="n">
         <v>98</v>
@@ -2705,13 +2672,13 @@
         <v>67</v>
       </c>
       <c r="B69" t="s">
-        <v>188</v>
+        <v>182</v>
       </c>
       <c r="C69" t="s">
-        <v>189</v>
+        <v>183</v>
       </c>
       <c r="D69" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E69" t="n">
         <v>250</v>
@@ -2725,10 +2692,10 @@
         <v>68</v>
       </c>
       <c r="B70" t="s">
-        <v>190</v>
+        <v>184</v>
       </c>
       <c r="C70" t="s">
-        <v>191</v>
+        <v>185</v>
       </c>
       <c r="D70" t="s">
         <v>33</v>
@@ -2745,10 +2712,10 @@
         <v>69</v>
       </c>
       <c r="B71" t="s">
-        <v>192</v>
+        <v>186</v>
       </c>
       <c r="C71" t="s">
-        <v>193</v>
+        <v>187</v>
       </c>
       <c r="D71" t="s">
         <v>48</v>
@@ -2765,13 +2732,13 @@
         <v>70</v>
       </c>
       <c r="B72" t="s">
-        <v>194</v>
+        <v>188</v>
       </c>
       <c r="C72" t="s">
-        <v>195</v>
+        <v>189</v>
       </c>
       <c r="D72" t="s">
-        <v>196</v>
+        <v>26</v>
       </c>
       <c r="E72" t="n">
         <v>94</v>
@@ -2785,13 +2752,13 @@
         <v>71</v>
       </c>
       <c r="B73" t="s">
-        <v>197</v>
+        <v>190</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>191</v>
       </c>
       <c r="D73" t="s">
-        <v>199</v>
+        <v>26</v>
       </c>
       <c r="E73" t="n">
         <v>255</v>
@@ -2805,10 +2772,10 @@
         <v>72</v>
       </c>
       <c r="B74" t="s">
-        <v>200</v>
+        <v>192</v>
       </c>
       <c r="C74" t="s">
-        <v>201</v>
+        <v>193</v>
       </c>
       <c r="D74" t="s">
         <v>23</v>
@@ -2825,13 +2792,13 @@
         <v>73</v>
       </c>
       <c r="B75" t="s">
-        <v>202</v>
+        <v>194</v>
       </c>
       <c r="C75" t="s">
-        <v>203</v>
+        <v>195</v>
       </c>
       <c r="D75" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E75" t="n">
         <v>254</v>
@@ -2845,10 +2812,10 @@
         <v>74</v>
       </c>
       <c r="B76" t="s">
-        <v>204</v>
+        <v>196</v>
       </c>
       <c r="C76" t="s">
-        <v>205</v>
+        <v>197</v>
       </c>
       <c r="D76" t="s">
         <v>48</v>
@@ -2865,13 +2832,13 @@
         <v>75</v>
       </c>
       <c r="B77" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="C77" t="s">
-        <v>207</v>
+        <v>199</v>
       </c>
       <c r="D77" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E77" t="n">
         <v>350</v>
@@ -2885,19 +2852,19 @@
         <v>76</v>
       </c>
       <c r="B78" t="s">
-        <v>209</v>
+        <v>201</v>
       </c>
       <c r="C78" t="s">
-        <v>210</v>
+        <v>202</v>
       </c>
       <c r="D78" t="s">
-        <v>211</v>
+        <v>203</v>
       </c>
       <c r="E78" t="n">
         <v>100</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="79" spans="1:6">
@@ -2905,13 +2872,13 @@
         <v>77</v>
       </c>
       <c r="B79" t="s">
-        <v>213</v>
+        <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>214</v>
+        <v>206</v>
       </c>
       <c r="D79" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E79" t="n">
         <v>270</v>
@@ -2925,13 +2892,13 @@
         <v>78</v>
       </c>
       <c r="B80" t="s">
-        <v>215</v>
+        <v>207</v>
       </c>
       <c r="C80" t="s">
-        <v>216</v>
+        <v>208</v>
       </c>
       <c r="D80" t="s">
-        <v>52</v>
+        <v>26</v>
       </c>
       <c r="E80" t="n">
         <v>264</v>
@@ -2945,10 +2912,10 @@
         <v>79</v>
       </c>
       <c r="B81" t="s">
-        <v>217</v>
+        <v>209</v>
       </c>
       <c r="C81" t="s">
-        <v>218</v>
+        <v>210</v>
       </c>
       <c r="D81" t="s">
         <v>48</v>
@@ -2965,13 +2932,13 @@
         <v>80</v>
       </c>
       <c r="B82" t="s">
-        <v>219</v>
+        <v>211</v>
       </c>
       <c r="C82" t="s">
-        <v>220</v>
+        <v>212</v>
       </c>
       <c r="D82" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E82" t="n">
         <v>8</v>
@@ -2985,13 +2952,13 @@
         <v>81</v>
       </c>
       <c r="B83" t="s">
-        <v>221</v>
+        <v>213</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D83" t="s">
-        <v>223</v>
+        <v>215</v>
       </c>
       <c r="E83" t="n">
         <v>134</v>
@@ -3005,13 +2972,13 @@
         <v>82</v>
       </c>
       <c r="B84" t="s">
-        <v>224</v>
+        <v>216</v>
       </c>
       <c r="C84" t="s">
-        <v>225</v>
+        <v>217</v>
       </c>
       <c r="D84" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E84" t="n">
         <v>125</v>
@@ -3025,13 +2992,13 @@
         <v>83</v>
       </c>
       <c r="B85" t="s">
-        <v>227</v>
+        <v>219</v>
       </c>
       <c r="C85" t="s">
-        <v>228</v>
+        <v>220</v>
       </c>
       <c r="D85" t="s">
-        <v>229</v>
+        <v>221</v>
       </c>
       <c r="E85" t="n">
         <v>43</v>
@@ -3045,10 +3012,10 @@
         <v>84</v>
       </c>
       <c r="B86" t="s">
-        <v>230</v>
+        <v>222</v>
       </c>
       <c r="C86" t="s">
-        <v>231</v>
+        <v>223</v>
       </c>
       <c r="D86" t="s">
         <v>33</v>
@@ -3065,19 +3032,19 @@
         <v>85</v>
       </c>
       <c r="B87" t="s">
-        <v>232</v>
+        <v>224</v>
       </c>
       <c r="C87" t="s">
-        <v>233</v>
+        <v>225</v>
       </c>
       <c r="D87" t="s">
-        <v>234</v>
+        <v>226</v>
       </c>
       <c r="E87" t="n">
         <v>230</v>
       </c>
       <c r="F87" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
     </row>
     <row r="88" spans="1:6">
@@ -3085,13 +3052,13 @@
         <v>86</v>
       </c>
       <c r="B88" t="s">
-        <v>235</v>
+        <v>227</v>
       </c>
       <c r="C88" t="s">
-        <v>236</v>
+        <v>228</v>
       </c>
       <c r="D88" t="s">
-        <v>70</v>
+        <v>68</v>
       </c>
       <c r="E88" t="n">
         <v>333</v>
@@ -3105,10 +3072,10 @@
         <v>87</v>
       </c>
       <c r="B89" t="s">
-        <v>237</v>
+        <v>229</v>
       </c>
       <c r="C89" t="s">
-        <v>238</v>
+        <v>230</v>
       </c>
       <c r="D89" t="s">
         <v>48</v>
@@ -3125,10 +3092,10 @@
         <v>88</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>231</v>
       </c>
       <c r="C90" t="s">
-        <v>240</v>
+        <v>232</v>
       </c>
       <c r="D90" t="s">
         <v>26</v>
@@ -3145,13 +3112,13 @@
         <v>89</v>
       </c>
       <c r="B91" t="s">
-        <v>241</v>
+        <v>233</v>
       </c>
       <c r="C91" t="s">
-        <v>242</v>
+        <v>234</v>
       </c>
       <c r="D91" t="s">
-        <v>243</v>
+        <v>26</v>
       </c>
       <c r="E91" t="n">
         <v>68</v>
@@ -3165,19 +3132,19 @@
         <v>90</v>
       </c>
       <c r="B92" t="s">
-        <v>244</v>
+        <v>235</v>
       </c>
       <c r="C92" t="s">
-        <v>245</v>
+        <v>236</v>
       </c>
       <c r="D92" t="s">
-        <v>246</v>
+        <v>237</v>
       </c>
       <c r="E92" t="n">
         <v>200</v>
       </c>
       <c r="F92" t="s">
-        <v>61</v>
+        <v>59</v>
       </c>
     </row>
     <row r="93" spans="1:6">
@@ -3185,13 +3152,13 @@
         <v>91</v>
       </c>
       <c r="B93" t="s">
-        <v>247</v>
+        <v>238</v>
       </c>
       <c r="C93" t="s">
-        <v>248</v>
+        <v>239</v>
       </c>
       <c r="D93" t="s">
-        <v>226</v>
+        <v>218</v>
       </c>
       <c r="E93" t="n">
         <v>211</v>
@@ -3205,19 +3172,19 @@
         <v>92</v>
       </c>
       <c r="B94" t="s">
-        <v>249</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
-        <v>250</v>
+        <v>241</v>
       </c>
       <c r="D94" t="s">
-        <v>251</v>
+        <v>242</v>
       </c>
       <c r="E94" t="n">
         <v>400</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>243</v>
       </c>
     </row>
     <row r="95" spans="1:6">
@@ -3225,13 +3192,13 @@
         <v>93</v>
       </c>
       <c r="B95" t="s">
-        <v>253</v>
+        <v>244</v>
       </c>
       <c r="C95" t="s">
-        <v>254</v>
+        <v>245</v>
       </c>
       <c r="D95" t="s">
-        <v>185</v>
+        <v>179</v>
       </c>
       <c r="E95" t="n">
         <v>146</v>
@@ -3243,13 +3210,13 @@
         <v>94</v>
       </c>
       <c r="B96" t="s">
-        <v>255</v>
+        <v>246</v>
       </c>
       <c r="C96" t="s">
-        <v>256</v>
+        <v>247</v>
       </c>
       <c r="D96" t="s">
-        <v>105</v>
+        <v>26</v>
       </c>
       <c r="E96" t="n">
         <v>251</v>
@@ -3263,13 +3230,13 @@
         <v>95</v>
       </c>
       <c r="B97" t="s">
-        <v>257</v>
+        <v>248</v>
       </c>
       <c r="C97" t="s">
-        <v>258</v>
+        <v>249</v>
       </c>
       <c r="D97" t="s">
-        <v>259</v>
+        <v>250</v>
       </c>
       <c r="E97" t="n">
         <v>325</v>
@@ -3283,13 +3250,13 @@
         <v>96</v>
       </c>
       <c r="B98" t="s">
-        <v>260</v>
+        <v>251</v>
       </c>
       <c r="C98" t="s">
-        <v>261</v>
+        <v>252</v>
       </c>
       <c r="D98" t="s">
-        <v>58</v>
+        <v>26</v>
       </c>
       <c r="E98" t="n">
         <v>220</v>
@@ -3303,13 +3270,13 @@
         <v>97</v>
       </c>
       <c r="B99" t="s">
-        <v>262</v>
+        <v>253</v>
       </c>
       <c r="C99" t="s">
-        <v>263</v>
+        <v>254</v>
       </c>
       <c r="D99" t="s">
-        <v>264</v>
+        <v>255</v>
       </c>
       <c r="E99" t="n">
         <v>84</v>
@@ -3323,10 +3290,10 @@
         <v>98</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>256</v>
       </c>
       <c r="C100" t="s">
-        <v>266</v>
+        <v>257</v>
       </c>
       <c r="D100" t="s">
         <v>26</v>
@@ -3343,13 +3310,13 @@
         <v>99</v>
       </c>
       <c r="B101" t="s">
-        <v>267</v>
+        <v>258</v>
       </c>
       <c r="C101" t="s">
-        <v>268</v>
+        <v>259</v>
       </c>
       <c r="D101" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E101" t="n">
         <v>312</v>
@@ -3363,13 +3330,13 @@
         <v>100</v>
       </c>
       <c r="B102" t="s">
-        <v>269</v>
+        <v>260</v>
       </c>
       <c r="C102" t="s">
-        <v>270</v>
+        <v>261</v>
       </c>
       <c r="D102" t="s">
-        <v>271</v>
+        <v>262</v>
       </c>
       <c r="E102" t="n">
         <v>352</v>
@@ -3383,13 +3350,13 @@
         <v>101</v>
       </c>
       <c r="B103" t="s">
-        <v>272</v>
+        <v>263</v>
       </c>
       <c r="C103" t="s">
-        <v>222</v>
+        <v>214</v>
       </c>
       <c r="D103" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E103" t="n">
         <v>155</v>
@@ -3403,10 +3370,10 @@
         <v>102</v>
       </c>
       <c r="B104" t="s">
-        <v>274</v>
+        <v>265</v>
       </c>
       <c r="C104" t="s">
-        <v>275</v>
+        <v>266</v>
       </c>
       <c r="D104" t="s">
         <v>19</v>
@@ -3423,19 +3390,19 @@
         <v>103</v>
       </c>
       <c r="B105" t="s">
-        <v>276</v>
+        <v>267</v>
       </c>
       <c r="C105" t="s">
-        <v>277</v>
+        <v>268</v>
       </c>
       <c r="D105" t="s">
-        <v>141</v>
+        <v>136</v>
       </c>
       <c r="E105" t="n">
         <v>360</v>
       </c>
       <c r="F105" t="s">
-        <v>88</v>
+        <v>86</v>
       </c>
     </row>
     <row r="106" spans="1:6">
@@ -3443,13 +3410,13 @@
         <v>104</v>
       </c>
       <c r="B106" t="s">
-        <v>278</v>
+        <v>269</v>
       </c>
       <c r="C106" t="s">
-        <v>279</v>
+        <v>270</v>
       </c>
       <c r="D106" t="s">
-        <v>280</v>
+        <v>26</v>
       </c>
       <c r="E106" t="n">
         <v>210</v>
@@ -3463,19 +3430,19 @@
         <v>105</v>
       </c>
       <c r="B107" t="s">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>272</v>
       </c>
       <c r="D107" t="s">
-        <v>208</v>
+        <v>200</v>
       </c>
       <c r="E107" t="n">
         <v>136</v>
       </c>
       <c r="F107" t="s">
-        <v>212</v>
+        <v>204</v>
       </c>
     </row>
     <row r="108" spans="1:6">
@@ -3483,13 +3450,13 @@
         <v>106</v>
       </c>
       <c r="B108" t="s">
-        <v>283</v>
+        <v>273</v>
       </c>
       <c r="C108" t="s">
-        <v>284</v>
+        <v>274</v>
       </c>
       <c r="D108" t="s">
-        <v>157</v>
+        <v>152</v>
       </c>
       <c r="E108" t="n">
         <v>192</v>
@@ -3503,10 +3470,10 @@
         <v>107</v>
       </c>
       <c r="B109" t="s">
-        <v>285</v>
+        <v>275</v>
       </c>
       <c r="C109" t="s">
-        <v>286</v>
+        <v>276</v>
       </c>
       <c r="D109" t="s">
         <v>19</v>
@@ -3523,10 +3490,10 @@
         <v>108</v>
       </c>
       <c r="B110" t="s">
-        <v>287</v>
+        <v>277</v>
       </c>
       <c r="C110" t="s">
-        <v>288</v>
+        <v>278</v>
       </c>
       <c r="D110" t="s">
         <v>7</v>
@@ -3543,13 +3510,13 @@
         <v>109</v>
       </c>
       <c r="B111" t="s">
-        <v>289</v>
+        <v>279</v>
       </c>
       <c r="C111" t="s">
-        <v>290</v>
+        <v>280</v>
       </c>
       <c r="D111" t="s">
-        <v>273</v>
+        <v>264</v>
       </c>
       <c r="E111" t="n">
         <v>20</v>
@@ -3563,10 +3530,10 @@
         <v>110</v>
       </c>
       <c r="B112" t="s">
-        <v>291</v>
+        <v>281</v>
       </c>
       <c r="C112" t="s">
-        <v>292</v>
+        <v>282</v>
       </c>
       <c r="D112" t="s">
         <v>33</v>
@@ -3583,10 +3550,10 @@
         <v>111</v>
       </c>
       <c r="B113" t="s">
-        <v>293</v>
+        <v>283</v>
       </c>
       <c r="C113" t="s">
-        <v>294</v>
+        <v>284</v>
       </c>
       <c r="D113" t="s">
         <v>15</v>
@@ -3603,13 +3570,13 @@
         <v>112</v>
       </c>
       <c r="B114" t="s">
-        <v>295</v>
+        <v>285</v>
       </c>
       <c r="C114" t="s">
-        <v>296</v>
+        <v>286</v>
       </c>
       <c r="D114" t="s">
-        <v>297</v>
+        <v>287</v>
       </c>
       <c r="E114" t="n">
         <v>250</v>
@@ -3623,13 +3590,13 @@
         <v>113</v>
       </c>
       <c r="B115" t="s">
-        <v>298</v>
+        <v>288</v>
       </c>
       <c r="C115" t="s">
-        <v>299</v>
+        <v>289</v>
       </c>
       <c r="D115" t="s">
-        <v>300</v>
+        <v>290</v>
       </c>
       <c r="E115" t="n">
         <v>150</v>
@@ -3643,13 +3610,13 @@
         <v>114</v>
       </c>
       <c r="B116" t="s">
-        <v>301</v>
+        <v>291</v>
       </c>
       <c r="C116" t="s">
-        <v>302</v>
+        <v>292</v>
       </c>
       <c r="D116" t="s">
-        <v>303</v>
+        <v>293</v>
       </c>
       <c r="E116" t="n">
         <v>80</v>
@@ -3663,13 +3630,13 @@
         <v>115</v>
       </c>
       <c r="B117" t="s">
-        <v>304</v>
+        <v>294</v>
       </c>
       <c r="C117" t="s">
-        <v>305</v>
+        <v>295</v>
       </c>
       <c r="D117" t="s">
-        <v>306</v>
+        <v>296</v>
       </c>
       <c r="E117" t="n">
         <v>300</v>
@@ -3683,13 +3650,13 @@
         <v>116</v>
       </c>
       <c r="B118" t="s">
-        <v>307</v>
+        <v>297</v>
       </c>
       <c r="C118" t="s">
-        <v>308</v>
+        <v>298</v>
       </c>
       <c r="D118" t="s">
-        <v>309</v>
+        <v>299</v>
       </c>
       <c r="E118" t="n">
         <v>120</v>
@@ -3703,13 +3670,13 @@
         <v>117</v>
       </c>
       <c r="B119" t="s">
-        <v>310</v>
+        <v>300</v>
       </c>
       <c r="C119" t="s">
-        <v>311</v>
+        <v>301</v>
       </c>
       <c r="D119" t="s">
-        <v>312</v>
+        <v>26</v>
       </c>
       <c r="E119" t="n">
         <v>150</v>
@@ -3723,13 +3690,13 @@
         <v>118</v>
       </c>
       <c r="B120" t="s">
-        <v>313</v>
+        <v>302</v>
       </c>
       <c r="C120" t="s">
-        <v>314</v>
+        <v>303</v>
       </c>
       <c r="D120" t="s">
-        <v>315</v>
+        <v>304</v>
       </c>
       <c r="E120" t="n">
         <v>73</v>
@@ -3743,13 +3710,13 @@
         <v>119</v>
       </c>
       <c r="B121" t="s">
-        <v>316</v>
+        <v>305</v>
       </c>
       <c r="C121" t="s">
-        <v>317</v>
+        <v>306</v>
       </c>
       <c r="D121" t="s">
-        <v>318</v>
+        <v>307</v>
       </c>
       <c r="E121" t="n">
         <v>280</v>
@@ -3763,13 +3730,13 @@
         <v>120</v>
       </c>
       <c r="B122" t="s">
-        <v>319</v>
+        <v>308</v>
       </c>
       <c r="C122" t="s">
-        <v>320</v>
+        <v>309</v>
       </c>
       <c r="D122" t="s">
-        <v>321</v>
+        <v>310</v>
       </c>
       <c r="E122" t="n">
         <v>300</v>
@@ -3783,13 +3750,13 @@
         <v>121</v>
       </c>
       <c r="B123" t="s">
-        <v>322</v>
+        <v>311</v>
       </c>
       <c r="C123" t="s">
-        <v>323</v>
+        <v>312</v>
       </c>
       <c r="D123" t="s">
-        <v>324</v>
+        <v>313</v>
       </c>
       <c r="E123" t="n">
         <v>350</v>
